--- a/bom/bebec bom.xlsx
+++ b/bom/bebec bom.xlsx
@@ -1,17 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kuba\projekty_skończone\BEBEC-bluetooth car\bom\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDB5E73-3925-42EE-87C1-08B36D5F5772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Arkusz1" sheetId="1" r:id="rId4"/>
+    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>(specyfic quantiti in git description folder)</t>
   </si>
@@ -104,30 +126,39 @@
   </si>
   <si>
     <t>you may also place components on braedboard protoboard</t>
+  </si>
+  <si>
+    <t>HC06 Bluetooth module</t>
+  </si>
+  <si>
+    <t>https://pl.aliexpress.com/item/1005003007888009.html?spm=a2g0o.productlist.main.3.1b8d8hGw8hGwzH&amp;algo_pvid=697836a9-a1bb-4915-95f8-1ee953039fb2&amp;algo_exp_id=697836a9-a1bb-4915-95f8-1ee953039fb2-1&amp;pdp_npi=4%40dis%21EUR%213.50%213.50%21%21%213.78%213.78%21%402103849717253553466048828e9e4c%2112000023196813185%21sea%21PL%212150485386%21X&amp;curPageLogUid=mMwzBt4gRo3g&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$€]#,##0.00"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -135,7 +166,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -151,46 +182,43 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -380,28 +408,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="26.5"/>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -418,12 +451,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="4">
         <v>2.96</v>
@@ -431,21 +464,21 @@
       <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="6">
-        <f t="shared" ref="E3:E17" si="1">B3*C3</f>
+      <c r="E3" s="4">
+        <f t="shared" ref="E3:E18" si="0">B3*C3</f>
         <v>2.96</v>
       </c>
-      <c r="F3" s="6">
-        <f>SUM(E3:E13)</f>
-        <v>24.35</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="F3" s="4">
+        <f>SUM(E3:E14)</f>
+        <v>27.85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="4">
         <v>2.15</v>
@@ -453,38 +486,38 @@
       <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="6">
-        <f t="shared" si="1"/>
+      <c r="E4" s="4">
+        <f t="shared" si="0"/>
         <v>2.15</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="4">
-        <v>2.24</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="6">
-        <f t="shared" si="1"/>
-        <v>2.24</v>
+      <c r="E5" s="4">
+        <f t="shared" si="0"/>
+        <v>2.2400000000000002</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="4">
         <v>1.29</v>
@@ -492,17 +525,17 @@
       <c r="D6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="6">
-        <f t="shared" si="1"/>
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
         <v>1.29</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="4">
         <v>1.01</v>
@@ -510,17 +543,17 @@
       <c r="D7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="6">
-        <f t="shared" si="1"/>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
         <v>1.01</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="4">
         <v>5.89</v>
@@ -528,17 +561,17 @@
       <c r="D8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="6">
-        <f t="shared" si="1"/>
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
         <v>5.89</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C9" s="4">
         <v>1.46</v>
@@ -546,17 +579,17 @@
       <c r="D9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="6">
-        <f t="shared" si="1"/>
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
         <v>2.92</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="4">
         <v>1.31</v>
@@ -564,17 +597,17 @@
       <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="6">
-        <f t="shared" si="1"/>
+      <c r="E10" s="4">
+        <f t="shared" si="0"/>
         <v>1.31</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="4">
         <v>0.92</v>
@@ -582,17 +615,17 @@
       <c r="D11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="6">
-        <f t="shared" si="1"/>
+      <c r="E11" s="4">
+        <f t="shared" si="0"/>
         <v>0.92</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="4">
         <v>1.52</v>
@@ -600,73 +633,91 @@
       <c r="D12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="6">
-        <f t="shared" si="1"/>
+      <c r="E12" s="4">
+        <f t="shared" si="0"/>
         <v>1.52</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C13" s="4">
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4">
         <v>2.14</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="6">
-        <f t="shared" si="1"/>
+      <c r="E14" s="4">
+        <f t="shared" si="0"/>
         <v>2.14</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="7">
-        <f t="shared" si="1"/>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="7">
-        <f t="shared" si="1"/>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16">
-      <c r="E16" s="7">
-        <f t="shared" si="1"/>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17">
-      <c r="E17" s="7">
-        <f t="shared" si="1"/>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D3"/>
-    <hyperlink r:id="rId2" ref="D4"/>
-    <hyperlink r:id="rId3" ref="D5"/>
-    <hyperlink r:id="rId4" ref="D6"/>
-    <hyperlink r:id="rId5" ref="D7"/>
-    <hyperlink r:id="rId6" ref="D8"/>
-    <hyperlink r:id="rId7" ref="D9"/>
-    <hyperlink r:id="rId8" ref="D10"/>
-    <hyperlink r:id="rId9" ref="D11"/>
-    <hyperlink r:id="rId10" ref="D12"/>
-    <hyperlink r:id="rId11" ref="D13"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
   </hyperlinks>
-  <drawing r:id="rId12"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/bom/bebec bom.xlsx
+++ b/bom/bebec bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kuba\projekty_skończone\BEBEC-bluetooth car\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDB5E73-3925-42EE-87C1-08B36D5F5772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F80014-058B-42DA-A890-9AB389C2963C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>(specyfic quantiti in git description folder)</t>
   </si>
@@ -132,6 +132,21 @@
   </si>
   <si>
     <t>https://pl.aliexpress.com/item/1005003007888009.html?spm=a2g0o.productlist.main.3.1b8d8hGw8hGwzH&amp;algo_pvid=697836a9-a1bb-4915-95f8-1ee953039fb2&amp;algo_exp_id=697836a9-a1bb-4915-95f8-1ee953039fb2-1&amp;pdp_npi=4%40dis%21EUR%213.50%213.50%21%21%213.78%213.78%21%402103849717253553466048828e9e4c%2112000023196813185%21sea%21PL%212150485386%21X&amp;curPageLogUid=mMwzBt4gRo3g&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+  </si>
+  <si>
+    <t>switch</t>
+  </si>
+  <si>
+    <t>m3 x 30 screw</t>
+  </si>
+  <si>
+    <t>m3 nuts</t>
+  </si>
+  <si>
+    <t>m3 washers</t>
+  </si>
+  <si>
+    <t>m3 x 16 screw</t>
   </si>
 </sst>
 </file>
@@ -418,10 +433,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -465,7 +480,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="4">
-        <f t="shared" ref="E3:E18" si="0">B3*C3</f>
+        <f t="shared" ref="E3:F22" si="0">B3*C3</f>
         <v>2.96</v>
       </c>
       <c r="F3" s="4">
@@ -676,33 +691,67 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="0"/>
+        <f>B15*C15</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="1">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="1">
+        <v>12</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="1">
+        <v>4</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="1">
+        <v>8</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
